--- a/data/trans_orig/Q4502_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Q4502_R-Habitat-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>157503</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>137770</v>
+        <v>137378</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>180247</v>
+        <v>179529</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2272785300539815</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1988034384600108</v>
+        <v>0.1982389723530469</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2600988530704322</v>
+        <v>0.2590629810834503</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>153</v>
@@ -764,19 +764,19 @@
         <v>150846</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>130808</v>
+        <v>130862</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>173846</v>
+        <v>171969</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2194741133354777</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1903197746500252</v>
+        <v>0.1903978530638139</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2529368923835793</v>
+        <v>0.2502073164666775</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>310</v>
@@ -785,19 +785,19 @@
         <v>308349</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>279057</v>
+        <v>278612</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>340534</v>
+        <v>340553</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2233923956811451</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2021709455002333</v>
+        <v>0.2018485438949319</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.246710053592963</v>
+        <v>0.2467237315450546</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>188022</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>167548</v>
+        <v>164293</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>211972</v>
+        <v>210684</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2713189340616851</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2417739108015864</v>
+        <v>0.237076780772968</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3058780210670825</v>
+        <v>0.3040197000720145</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>136</v>
@@ -835,19 +835,19 @@
         <v>139661</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>120716</v>
+        <v>120596</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>162808</v>
+        <v>162221</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2032006349868706</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1756355760223212</v>
+        <v>0.1754618535857255</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.236878012216325</v>
+        <v>0.2360236959954161</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>320</v>
@@ -856,19 +856,19 @@
         <v>327684</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>297222</v>
+        <v>297331</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>363976</v>
+        <v>360051</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2374000810580827</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2153314799715514</v>
+        <v>0.2154103092638922</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2636932220188941</v>
+        <v>0.2608492484698688</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>201573</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>178640</v>
+        <v>177586</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>226191</v>
+        <v>224624</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2908723655844663</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2577793772308186</v>
+        <v>0.2562585439384734</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3263969569907376</v>
+        <v>0.3241350591532607</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>237</v>
@@ -906,19 +906,19 @@
         <v>235184</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>211315</v>
+        <v>210713</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>259228</v>
+        <v>258538</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3421811309488428</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.307452875696977</v>
+        <v>0.3065775781495151</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3771649609977931</v>
+        <v>0.3761596657428015</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>434</v>
@@ -927,19 +927,19 @@
         <v>436757</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>404928</v>
+        <v>403360</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>472208</v>
+        <v>470460</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3164210726694626</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2933622238105287</v>
+        <v>0.2922260308965603</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3421046154203649</v>
+        <v>0.3408388036825</v>
       </c>
     </row>
     <row r="7">
@@ -956,19 +956,19 @@
         <v>20378</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>12839</v>
+        <v>13417</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>29580</v>
+        <v>30262</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02940604273464677</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01852661242075372</v>
+        <v>0.01936115482270034</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04268394373595162</v>
+        <v>0.04366902789420216</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>39</v>
@@ -977,19 +977,19 @@
         <v>37564</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>26748</v>
+        <v>27525</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>49920</v>
+        <v>51819</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.05465354480202521</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03891651580964465</v>
+        <v>0.04004738597066552</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.07263115466302428</v>
+        <v>0.07539347393626016</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>60</v>
@@ -998,19 +998,19 @@
         <v>57942</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>44551</v>
+        <v>45844</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>74187</v>
+        <v>76610</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.04197779398156219</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03227594820958959</v>
+        <v>0.03321279871094896</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05374716339861203</v>
+        <v>0.05550240636524603</v>
       </c>
     </row>
     <row r="8">
@@ -1027,19 +1027,19 @@
         <v>125518</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>104947</v>
+        <v>105902</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>146008</v>
+        <v>147132</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1811241275652203</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.151440156258897</v>
+        <v>0.1528177325699044</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2106912530533936</v>
+        <v>0.2123141785348572</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>130</v>
@@ -1048,19 +1048,19 @@
         <v>124053</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>106434</v>
+        <v>106086</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>144733</v>
+        <v>143576</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1804905759267836</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1548556571085253</v>
+        <v>0.1543504646312923</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2105791955544567</v>
+        <v>0.2088967422719677</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>253</v>
@@ -1069,19 +1069,19 @@
         <v>249571</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>221276</v>
+        <v>221973</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>279707</v>
+        <v>279159</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1808086566097474</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1603099801277675</v>
+        <v>0.1608149576901063</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2026418954486648</v>
+        <v>0.202244686588504</v>
       </c>
     </row>
     <row r="9">
@@ -1173,19 +1173,19 @@
         <v>206416</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>179392</v>
+        <v>180850</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>232827</v>
+        <v>232235</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2148637813395506</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1867336320653155</v>
+        <v>0.1882513081826269</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2423554774769841</v>
+        <v>0.2417402137800646</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>163</v>
@@ -1194,19 +1194,19 @@
         <v>180648</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>156503</v>
+        <v>156749</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>206591</v>
+        <v>205901</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1871691402994423</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1621529395839504</v>
+        <v>0.1624073983033589</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.214049315268906</v>
+        <v>0.2133337977396858</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>354</v>
@@ -1215,19 +1215,19 @@
         <v>387063</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>352002</v>
+        <v>353344</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>425152</v>
+        <v>425188</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2009842853370469</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1827786607619783</v>
+        <v>0.183475450404039</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2207620839480027</v>
+        <v>0.2207805352445631</v>
       </c>
     </row>
     <row r="11">
@@ -1244,19 +1244,19 @@
         <v>210256</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>184612</v>
+        <v>184183</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>236518</v>
+        <v>235337</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.218860892675261</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1921671610771325</v>
+        <v>0.191721513021703</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2461982523511365</v>
+        <v>0.2449690367131072</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>147</v>
@@ -1265,19 +1265,19 @@
         <v>160649</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>139388</v>
+        <v>136074</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>185018</v>
+        <v>184759</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1664486589934406</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1444202225529725</v>
+        <v>0.1409863387881875</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1916973379166126</v>
+        <v>0.1914286089372821</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>345</v>
@@ -1286,19 +1286,19 @@
         <v>370905</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>336037</v>
+        <v>336590</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>403254</v>
+        <v>408567</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1925938835879942</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1744886615047957</v>
+        <v>0.1747757056314855</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.209391454918502</v>
+        <v>0.2121501670050937</v>
       </c>
     </row>
     <row r="12">
@@ -1315,19 +1315,19 @@
         <v>308882</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>278214</v>
+        <v>281403</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>337457</v>
+        <v>340580</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3215239943154919</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2896007878867656</v>
+        <v>0.292919673024334</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3512678627112673</v>
+        <v>0.3545186263300449</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>302</v>
@@ -1336,19 +1336,19 @@
         <v>316299</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>290428</v>
+        <v>286776</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>347267</v>
+        <v>346118</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3277181268958273</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.3009127202869189</v>
+        <v>0.2971293145911054</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3598033934616682</v>
+        <v>0.3586132795403469</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>591</v>
@@ -1357,19 +1357,19 @@
         <v>625182</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>580042</v>
+        <v>582850</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>662773</v>
+        <v>667851</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3246282569150048</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.301189504448679</v>
+        <v>0.3026471555784263</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3441476933809441</v>
+        <v>0.346784677280308</v>
       </c>
     </row>
     <row r="13">
@@ -1386,19 +1386,19 @@
         <v>52271</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>39007</v>
+        <v>38675</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>69617</v>
+        <v>69145</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05441016683793733</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04060349940914051</v>
+        <v>0.04025773759763149</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.07246636739644251</v>
+        <v>0.07197541902502963</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>66</v>
@@ -1407,19 +1407,19 @@
         <v>70400</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>54172</v>
+        <v>53665</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>87993</v>
+        <v>88183</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.07294142773172246</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05612777937244896</v>
+        <v>0.05560236710632897</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.09117004337061621</v>
+        <v>0.09136633141717847</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>112</v>
@@ -1428,19 +1428,19 @@
         <v>122671</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>102157</v>
+        <v>100255</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>145773</v>
+        <v>145146</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.06369732680235614</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05304529250046068</v>
+        <v>0.052057847434353</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.07569318414844269</v>
+        <v>0.07536759203657491</v>
       </c>
     </row>
     <row r="14">
@@ -1457,19 +1457,19 @@
         <v>182857</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>161239</v>
+        <v>156603</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>208806</v>
+        <v>206040</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1903411648317592</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1678378451594391</v>
+        <v>0.1630118712836897</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2173517869657758</v>
+        <v>0.21447309677693</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>227</v>
@@ -1478,19 +1478,19 @@
         <v>237161</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>212189</v>
+        <v>209932</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>266196</v>
+        <v>266158</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2457226460795674</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2198489213797578</v>
+        <v>0.2175104305895013</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2758055692346533</v>
+        <v>0.2757665757382585</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>398</v>
@@ -1499,19 +1499,19 @@
         <v>420018</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>380441</v>
+        <v>384709</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>458434</v>
+        <v>457589</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.218096247357598</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1975455277082235</v>
+        <v>0.1997617768349707</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2380440113306916</v>
+        <v>0.2376052578520314</v>
       </c>
     </row>
     <row r="15">
@@ -1603,19 +1603,19 @@
         <v>161871</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>141283</v>
+        <v>139689</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>187328</v>
+        <v>184658</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2388836230246299</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2085008472976325</v>
+        <v>0.2061486028307442</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2764527188564727</v>
+        <v>0.2725121722591695</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>177</v>
@@ -1624,19 +1624,19 @@
         <v>172296</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>149336</v>
+        <v>150529</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>193730</v>
+        <v>196120</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2519529109326706</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2183779131465111</v>
+        <v>0.2201228974753708</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2832963770140107</v>
+        <v>0.2867913940349703</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>335</v>
@@ -1645,19 +1645,19 @@
         <v>334166</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>303526</v>
+        <v>305256</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>365351</v>
+        <v>370891</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2454481595808875</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2229423815576114</v>
+        <v>0.2242129519126639</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.268353253516036</v>
+        <v>0.2724226441200835</v>
       </c>
     </row>
     <row r="17">
@@ -1674,19 +1674,19 @@
         <v>135156</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>116253</v>
+        <v>114597</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>158079</v>
+        <v>157395</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1994595891998316</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1715627785230758</v>
+        <v>0.1691185138366681</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2332875027663122</v>
+        <v>0.232278299603304</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>124</v>
@@ -1695,19 +1695,19 @@
         <v>119538</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>101411</v>
+        <v>102157</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>141984</v>
+        <v>142048</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1748035949168409</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1482958375357896</v>
+        <v>0.149387612772831</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2076275870536145</v>
+        <v>0.2077206707809282</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>254</v>
@@ -1716,19 +1716,19 @@
         <v>254694</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>225724</v>
+        <v>226920</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>283556</v>
+        <v>284931</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1870751978741196</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1657961955179963</v>
+        <v>0.1666745323019389</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2082742071287165</v>
+        <v>0.2092840239934985</v>
       </c>
     </row>
     <row r="18">
@@ -1745,19 +1745,19 @@
         <v>199145</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>174013</v>
+        <v>174918</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>224699</v>
+        <v>225729</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2938924480619487</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.25680245434313</v>
+        <v>0.2581385774335849</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3316039491039204</v>
+        <v>0.3331244638558699</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>165</v>
@@ -1766,19 +1766,19 @@
         <v>166773</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>144490</v>
+        <v>145689</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>190531</v>
+        <v>190777</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2438772983920381</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2112910795974939</v>
+        <v>0.2130449801077199</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2786188301473932</v>
+        <v>0.278977991087698</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>348</v>
@@ -1787,19 +1787,19 @@
         <v>365919</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>334226</v>
+        <v>335540</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>397311</v>
+        <v>400929</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2687704765601329</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2454916729838074</v>
+        <v>0.246456856744847</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2918282832388044</v>
+        <v>0.2944862307915982</v>
       </c>
     </row>
     <row r="19">
@@ -1816,19 +1816,19 @@
         <v>38660</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>27182</v>
+        <v>27853</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>52457</v>
+        <v>53319</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.05705370126474388</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.04011456078083048</v>
+        <v>0.04110432001632668</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.07741427042491995</v>
+        <v>0.07868680604962429</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>49</v>
@@ -1837,19 +1837,19 @@
         <v>47857</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>35750</v>
+        <v>36237</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>62417</v>
+        <v>62779</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.06998275740019747</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.05227872196290614</v>
+        <v>0.05299022211836069</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.09127390682160937</v>
+        <v>0.09180288078174341</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>85</v>
@@ -1858,19 +1858,19 @@
         <v>86517</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>70288</v>
+        <v>69644</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>107163</v>
+        <v>106558</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.06354780119094376</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.05162727947475543</v>
+        <v>0.05115436246877111</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.07871230254945018</v>
+        <v>0.07826807954634218</v>
       </c>
     </row>
     <row r="20">
@@ -1887,19 +1887,19 @@
         <v>142780</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>121625</v>
+        <v>122436</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>166269</v>
+        <v>165713</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2107106384488459</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1794907947288897</v>
+        <v>0.1806877780890416</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2453746071010769</v>
+        <v>0.2445533699076279</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>181</v>
@@ -1908,19 +1908,19 @@
         <v>177377</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>155149</v>
+        <v>155810</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>202132</v>
+        <v>200867</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2593834383582529</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2268785730696337</v>
+        <v>0.2278451651486145</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2955838000229311</v>
+        <v>0.2937341249181648</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>314</v>
@@ -1929,19 +1929,19 @@
         <v>320157</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>291174</v>
+        <v>284191</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>353819</v>
+        <v>350590</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2351583647939162</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2138700963364469</v>
+        <v>0.2087409524800659</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2598830656634926</v>
+        <v>0.2575115631718832</v>
       </c>
     </row>
     <row r="21">
@@ -2033,19 +2033,19 @@
         <v>193579</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>170864</v>
+        <v>170934</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>218454</v>
+        <v>219845</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2054494030817477</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.181342070880016</v>
+        <v>0.1814155237609522</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2318502934585062</v>
+        <v>0.2333255956261579</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>167</v>
@@ -2054,19 +2054,19 @@
         <v>175785</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>152578</v>
+        <v>151284</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>199362</v>
+        <v>199480</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1694508787575606</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1470797114323217</v>
+        <v>0.1458325385734592</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1921780085195076</v>
+        <v>0.1922917485227639</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>369</v>
@@ -2075,19 +2075,19 @@
         <v>369364</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>335789</v>
+        <v>339152</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>402845</v>
+        <v>409159</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.186584920915364</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1696242688230709</v>
+        <v>0.1713234434498635</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2034976438927058</v>
+        <v>0.2066874936477064</v>
       </c>
     </row>
     <row r="23">
@@ -2104,19 +2104,19 @@
         <v>217587</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>194487</v>
+        <v>192845</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>244638</v>
+        <v>243077</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2309299829368661</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2064128700146868</v>
+        <v>0.2046703504269979</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2596394708537889</v>
+        <v>0.2579828523829183</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>184</v>
@@ -2125,19 +2125,19 @@
         <v>193754</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>167967</v>
+        <v>171884</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>222396</v>
+        <v>222353</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1867719354692949</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1619140552118433</v>
+        <v>0.1656898997112759</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2143822570792863</v>
+        <v>0.2143408768310845</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>410</v>
@@ -2146,19 +2146,19 @@
         <v>411341</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>378411</v>
+        <v>377624</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>449898</v>
+        <v>449538</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.207789626086332</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1911549533245288</v>
+        <v>0.190757318143078</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2272669600682439</v>
+        <v>0.2270849344573311</v>
       </c>
     </row>
     <row r="24">
@@ -2175,19 +2175,19 @@
         <v>257638</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>233311</v>
+        <v>232738</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>285487</v>
+        <v>285641</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.273436226355791</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2476182115722042</v>
+        <v>0.2470092356299838</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3029931722815978</v>
+        <v>0.3031564622838094</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>264</v>
@@ -2196,19 +2196,19 @@
         <v>273250</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>242964</v>
+        <v>246669</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>302236</v>
+        <v>303353</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2634035201761414</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2342088084348563</v>
+        <v>0.2377809869190958</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2913449119315489</v>
+        <v>0.2924219794806186</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>538</v>
@@ -2217,19 +2217,19 @@
         <v>530887</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>493751</v>
+        <v>491910</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>569214</v>
+        <v>571571</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2681787384348374</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2494192635251963</v>
+        <v>0.2484890190062364</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2875396639104719</v>
+        <v>0.2887300061725209</v>
       </c>
     </row>
     <row r="25">
@@ -2246,19 +2246,19 @@
         <v>84522</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>69313</v>
+        <v>68169</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>104166</v>
+        <v>104309</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.08970451321348827</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.07356331735099236</v>
+        <v>0.07234872014127623</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1105540204203713</v>
+        <v>0.1107054024554161</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>99</v>
@@ -2267,19 +2267,19 @@
         <v>101565</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>83355</v>
+        <v>83463</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>121812</v>
+        <v>121971</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.09790561178056122</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.08035105967508119</v>
+        <v>0.0804557248754635</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1174224502771408</v>
+        <v>0.1175760799055729</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>189</v>
@@ -2288,19 +2288,19 @@
         <v>186087</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>161094</v>
+        <v>161615</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>212681</v>
+        <v>213639</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.09400217486956215</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.08137671364998669</v>
+        <v>0.08163995113938625</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1074359865149822</v>
+        <v>0.1079202407997521</v>
       </c>
     </row>
     <row r="26">
@@ -2317,19 +2317,19 @@
         <v>188897</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>165068</v>
+        <v>162476</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>215621</v>
+        <v>212217</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.200479874412107</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1751900644581626</v>
+        <v>0.172439525631432</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.228843156814017</v>
+        <v>0.2252301010694317</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>282</v>
@@ -2338,19 +2338,19 @@
         <v>293027</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>265955</v>
+        <v>263006</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>324083</v>
+        <v>322015</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2824680538164418</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2563714134509695</v>
+        <v>0.2535285987993742</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3124045521426144</v>
+        <v>0.3104114766982392</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>484</v>
@@ -2359,19 +2359,19 @@
         <v>481924</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>446523</v>
+        <v>448370</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>520630</v>
+        <v>522727</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2434445396939044</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2255620798432051</v>
+        <v>0.2264948917239971</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2629970078401366</v>
+        <v>0.2640564664475328</v>
       </c>
     </row>
     <row r="27">
@@ -2463,19 +2463,19 @@
         <v>719368</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>670302</v>
+        <v>672112</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>768319</v>
+        <v>766449</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2197542703176497</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.2047653240257098</v>
+        <v>0.205318285329975</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2347079855686769</v>
+        <v>0.2341366698258588</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>660</v>
@@ -2484,19 +2484,19 @@
         <v>679575</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>638709</v>
+        <v>631871</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>735157</v>
+        <v>728040</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.2014338547165477</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1893205713201033</v>
+        <v>0.1872939740004</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2179089189347768</v>
+        <v>0.2157993503639103</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1368</v>
@@ -2505,19 +2505,19 @@
         <v>1398943</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1334147</v>
+        <v>1331336</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1463410</v>
+        <v>1468254</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.2104560143211065</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.2007081434571537</v>
+        <v>0.2002853211656812</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2201543368124636</v>
+        <v>0.2208831620302016</v>
       </c>
     </row>
     <row r="29">
@@ -2534,19 +2534,19 @@
         <v>751022</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>702552</v>
+        <v>710045</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>796765</v>
+        <v>804203</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2294239506559946</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2146171191945775</v>
+        <v>0.2169062772625466</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2433977888852922</v>
+        <v>0.2456699049846511</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>591</v>
@@ -2555,19 +2555,19 @@
         <v>613602</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>571073</v>
+        <v>572127</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>655549</v>
+        <v>660790</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1818787684894895</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1692727376425231</v>
+        <v>0.1695848996403672</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1943124141285025</v>
+        <v>0.1958656780986146</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1329</v>
@@ -2576,19 +2576,19 @@
         <v>1364624</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1301895</v>
+        <v>1294819</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1433113</v>
+        <v>1428991</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2052930965961199</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1958562060756484</v>
+        <v>0.1947917436893</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2155965520439093</v>
+        <v>0.2149764668536517</v>
       </c>
     </row>
     <row r="30">
@@ -2605,19 +2605,19 @@
         <v>967238</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>919876</v>
+        <v>917082</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>1025439</v>
+        <v>1024005</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2954742144471698</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2810057781252002</v>
+        <v>0.2801524624271582</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3132534325914625</v>
+        <v>0.3128155012644703</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>968</v>
@@ -2626,19 +2626,19 @@
         <v>991507</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>939441</v>
+        <v>945163</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>1041802</v>
+        <v>1045954</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2938940028381642</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2784612832510341</v>
+        <v>0.2801572838130407</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3088020044061979</v>
+        <v>0.3100328977766597</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>1911</v>
@@ -2647,19 +2647,19 @@
         <v>1958745</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1880586</v>
+        <v>1886068</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>2030372</v>
+        <v>2029398</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2946722014148694</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2829139981476082</v>
+        <v>0.283738750394445</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3054477014097673</v>
+        <v>0.3053012090264733</v>
       </c>
     </row>
     <row r="31">
@@ -2676,19 +2676,19 @@
         <v>195831</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>166972</v>
+        <v>170789</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>223070</v>
+        <v>225640</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.05982291734037309</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.0510069865144559</v>
+        <v>0.05217305116039907</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.06814396566331163</v>
+        <v>0.06892894309014123</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>253</v>
@@ -2697,19 +2697,19 @@
         <v>257386</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>231005</v>
+        <v>225513</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>288128</v>
+        <v>288241</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.07629227196449773</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.0684726843635946</v>
+        <v>0.06684453320307548</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.0854043268350012</v>
+        <v>0.08543785459948119</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>446</v>
@@ -2718,19 +2718,19 @@
         <v>453217</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>413624</v>
+        <v>415315</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>499962</v>
+        <v>496326</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.06818169471351038</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.06222529200649195</v>
+        <v>0.06247964230182626</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.07521393723880038</v>
+        <v>0.07466701034166116</v>
       </c>
     </row>
     <row r="32">
@@ -2747,19 +2747,19 @@
         <v>640052</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>595331</v>
+        <v>594006</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>685331</v>
+        <v>685870</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1955246472388129</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1818630841785074</v>
+        <v>0.1814583349538244</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2093564363390945</v>
+        <v>0.209521303226208</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>820</v>
@@ -2768,19 +2768,19 @@
         <v>831618</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>783170</v>
+        <v>780854</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>883761</v>
+        <v>880166</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.2465011019913009</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.2321406868616072</v>
+        <v>0.2314542354595665</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.2619569719341148</v>
+        <v>0.2608912520710112</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1449</v>
@@ -2789,19 +2789,19 @@
         <v>1471670</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1403827</v>
+        <v>1407633</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>1544109</v>
+        <v>1536934</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.2213969929543938</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.2111908007555417</v>
+        <v>0.2117633837608131</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.2322947343075368</v>
+        <v>0.2312153192706884</v>
       </c>
     </row>
     <row r="33">
@@ -3133,19 +3133,19 @@
         <v>287474</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>260768</v>
+        <v>259579</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>315370</v>
+        <v>315049</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4097092321625179</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.371646947921993</v>
+        <v>0.3699526955091893</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4494672546028181</v>
+        <v>0.4490096633060471</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>248</v>
@@ -3154,19 +3154,19 @@
         <v>265040</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>237869</v>
+        <v>239278</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>291101</v>
+        <v>289838</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3808451449948393</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3418028471605405</v>
+        <v>0.3438268693800208</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4182939723853226</v>
+        <v>0.4164793796241933</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>522</v>
@@ -3175,19 +3175,19 @@
         <v>552514</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>516812</v>
+        <v>518154</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>592656</v>
+        <v>588688</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3953363497357989</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.369791220916535</v>
+        <v>0.3707510127856758</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4240587119282608</v>
+        <v>0.4212198741704521</v>
       </c>
     </row>
     <row r="5">
@@ -3204,19 +3204,19 @@
         <v>182419</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>157158</v>
+        <v>158582</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>207894</v>
+        <v>206481</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2599845647536996</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2239819502734466</v>
+        <v>0.2260123511470809</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2962918397452675</v>
+        <v>0.2942774772788416</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>153</v>
@@ -3225,19 +3225,19 @@
         <v>161904</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>140673</v>
+        <v>141399</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>186636</v>
+        <v>186325</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2326453169967602</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2021378517921384</v>
+        <v>0.2031811079284071</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2681834739845361</v>
+        <v>0.2677375438662651</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>328</v>
@@ -3246,19 +3246,19 @@
         <v>344323</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>313503</v>
+        <v>312296</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>376100</v>
+        <v>379361</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.246370976651546</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2243189738433784</v>
+        <v>0.223455162390909</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2691084941580097</v>
+        <v>0.271441272001721</v>
       </c>
     </row>
     <row r="6">
@@ -3275,19 +3275,19 @@
         <v>89163</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>72462</v>
+        <v>72192</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>106251</v>
+        <v>108242</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1270759193063359</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1032734844051938</v>
+        <v>0.1028886892214838</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1514287507950975</v>
+        <v>0.1542673152915293</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>96</v>
@@ -3296,19 +3296,19 @@
         <v>104551</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>87051</v>
+        <v>86273</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>126927</v>
+        <v>124382</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.150232996293453</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1250871705438616</v>
+        <v>0.1239693509262786</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1823854819948691</v>
+        <v>0.1787290272688055</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>183</v>
@@ -3317,19 +3317,19 @@
         <v>193714</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>167814</v>
+        <v>168196</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>220342</v>
+        <v>220523</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1386069939926338</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1200747550478293</v>
+        <v>0.1203480195765909</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1576595480947496</v>
+        <v>0.1577890006164032</v>
       </c>
     </row>
     <row r="7">
@@ -3346,19 +3346,19 @@
         <v>27718</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>18724</v>
+        <v>19343</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>40162</v>
+        <v>40277</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0395042092526216</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02668583232938557</v>
+        <v>0.02756824783336069</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05723918711859195</v>
+        <v>0.05740240059665892</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>24</v>
@@ -3367,19 +3367,19 @@
         <v>26274</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>17348</v>
+        <v>17237</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>37405</v>
+        <v>38566</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03775409553058871</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02492821231098035</v>
+        <v>0.02476789666175762</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.0537479932547789</v>
+        <v>0.05541652652046351</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>51</v>
@@ -3388,19 +3388,19 @@
         <v>53992</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>41193</v>
+        <v>41978</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>69443</v>
+        <v>70993</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03863273950497153</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02947450116796929</v>
+        <v>0.03003644836707179</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04968819576071912</v>
+        <v>0.05079695605263813</v>
       </c>
     </row>
     <row r="8">
@@ -3417,19 +3417,19 @@
         <v>114879</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>94228</v>
+        <v>96412</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>135662</v>
+        <v>137885</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.163726074524825</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1342943499978152</v>
+        <v>0.1374072659901365</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.19334640706176</v>
+        <v>0.1965139392139821</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>128</v>
@@ -3438,19 +3438,19 @@
         <v>138157</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>117706</v>
+        <v>118134</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>161260</v>
+        <v>159866</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1985224461843587</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1691357452137214</v>
+        <v>0.1697509260102253</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2317207673070332</v>
+        <v>0.2297173503018275</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>237</v>
@@ -3459,19 +3459,19 @@
         <v>253036</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>224982</v>
+        <v>224426</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>284498</v>
+        <v>282122</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1810529401150497</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1609801482828815</v>
+        <v>0.1605819925695281</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2035647828813653</v>
+        <v>0.2018645096957515</v>
       </c>
     </row>
     <row r="9">
@@ -3563,19 +3563,19 @@
         <v>420206</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>389586</v>
+        <v>384733</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>453281</v>
+        <v>454185</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4135954928096544</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3834575367217311</v>
+        <v>0.378681080392686</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.446150210004555</v>
+        <v>0.4470406834039983</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>369</v>
@@ -3584,19 +3584,19 @@
         <v>397860</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>365842</v>
+        <v>364121</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>427235</v>
+        <v>426700</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3870799303944178</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3559288182334123</v>
+        <v>0.3542546765165296</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4156587016112046</v>
+        <v>0.4151375850989351</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>758</v>
@@ -3605,19 +3605,19 @@
         <v>818066</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>771973</v>
+        <v>773329</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>864373</v>
+        <v>868022</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4002607243937246</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3777083483045398</v>
+        <v>0.3783719315181334</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4229174338790673</v>
+        <v>0.4247029993587944</v>
       </c>
     </row>
     <row r="11">
@@ -3634,19 +3634,19 @@
         <v>207265</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>181129</v>
+        <v>180940</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>236852</v>
+        <v>235347</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2040042618032445</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1782800456235496</v>
+        <v>0.1780939162772346</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2331260990692976</v>
+        <v>0.2316448282657083</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>165</v>
@@ -3655,19 +3655,19 @@
         <v>179918</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>155174</v>
+        <v>157201</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>205251</v>
+        <v>207816</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.175042739007642</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1509694502752249</v>
+        <v>0.1529414437320579</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1996892184155409</v>
+        <v>0.202184495717571</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>354</v>
@@ -3676,19 +3676,19 @@
         <v>387183</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>348485</v>
+        <v>351781</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>424876</v>
+        <v>428634</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1894394114182453</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1705054984310501</v>
+        <v>0.1721182291761274</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.207882094561512</v>
+        <v>0.2097206694026919</v>
       </c>
     </row>
     <row r="12">
@@ -3705,19 +3705,19 @@
         <v>161882</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>140327</v>
+        <v>138918</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>187561</v>
+        <v>187260</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1593356489866817</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.138119532430576</v>
+        <v>0.1367325440745409</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1846102633476071</v>
+        <v>0.1843139959136601</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>153</v>
@@ -3726,19 +3726,19 @@
         <v>168785</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>145502</v>
+        <v>146550</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>195130</v>
+        <v>193704</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1642114106703833</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1415589883408961</v>
+        <v>0.1425792997175933</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1898423991431038</v>
+        <v>0.1884550062229652</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>305</v>
@@ -3747,19 +3747,19 @@
         <v>330667</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>295988</v>
+        <v>293649</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>368054</v>
+        <v>364817</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1617876864688685</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1448202498823367</v>
+        <v>0.143675739744006</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1800804207288516</v>
+        <v>0.1784965939576607</v>
       </c>
     </row>
     <row r="13">
@@ -3776,19 +3776,19 @@
         <v>48041</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>35888</v>
+        <v>34407</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>63441</v>
+        <v>64037</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04728572913987016</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03532352511856637</v>
+        <v>0.0338656741276912</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0624426148243919</v>
+        <v>0.06303011532307282</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>56</v>
@@ -3797,19 +3797,19 @@
         <v>63029</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>48778</v>
+        <v>48517</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>81301</v>
+        <v>80625</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.0613213118452693</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04745645288987552</v>
+        <v>0.04720207990992798</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.07909766767610753</v>
+        <v>0.07843995721767776</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>98</v>
@@ -3818,19 +3818,19 @@
         <v>111071</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>91140</v>
+        <v>91057</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>136767</v>
+        <v>134535</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.05434427242204388</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04459268589892487</v>
+        <v>0.04455227745520952</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06691674621919726</v>
+        <v>0.06582493997381267</v>
       </c>
     </row>
     <row r="14">
@@ -3847,19 +3847,19 @@
         <v>178588</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>154843</v>
+        <v>152907</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>205627</v>
+        <v>204550</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1757788672605492</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.152406767720817</v>
+        <v>0.1505015739609234</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2023923011759397</v>
+        <v>0.201332795055873</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>193</v>
@@ -3868,19 +3868,19 @@
         <v>218259</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>191763</v>
+        <v>192496</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>248971</v>
+        <v>247068</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2123446080822876</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1865668901421013</v>
+        <v>0.1872797787623084</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2422246039974377</v>
+        <v>0.2403731519146608</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>355</v>
@@ -3889,19 +3889,19 @@
         <v>396847</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>360234</v>
+        <v>360016</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>432586</v>
+        <v>434636</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1941679052971176</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1762541159619372</v>
+        <v>0.176147671348345</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2116544863497586</v>
+        <v>0.2126571331874701</v>
       </c>
     </row>
     <row r="15">
@@ -3993,19 +3993,19 @@
         <v>241037</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>216754</v>
+        <v>215003</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>270478</v>
+        <v>268245</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3181489521941309</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2860968571244094</v>
+        <v>0.2837858605166698</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3570088788635097</v>
+        <v>0.3540611388789076</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>224</v>
@@ -4014,19 +4014,19 @@
         <v>248714</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>223891</v>
+        <v>221283</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>275153</v>
+        <v>275196</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3211743789846166</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2891199835747851</v>
+        <v>0.2857515666560843</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3553162737771373</v>
+        <v>0.3553720937358489</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>436</v>
@@ -4035,19 +4035,19 @@
         <v>489751</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>452164</v>
+        <v>450614</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>532184</v>
+        <v>529208</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3196782186188366</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2951438627152958</v>
+        <v>0.2941321230397423</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3473763769795004</v>
+        <v>0.3454336514734159</v>
       </c>
     </row>
     <row r="17">
@@ -4064,19 +4064,19 @@
         <v>164241</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>141011</v>
+        <v>142271</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>188227</v>
+        <v>189433</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2167848835930367</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1861229217670224</v>
+        <v>0.1877853798912215</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.248444474310491</v>
+        <v>0.2500354965809331</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>110</v>
@@ -4085,19 +4085,19 @@
         <v>121104</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>99259</v>
+        <v>101091</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>142961</v>
+        <v>144741</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1563868418847204</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1281774247544071</v>
+        <v>0.1305427869384468</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1846120191885128</v>
+        <v>0.1869099806272956</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>259</v>
@@ -4106,19 +4106,19 @@
         <v>285345</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>251962</v>
+        <v>252483</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>316623</v>
+        <v>322400</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1862554066964333</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1644650877845124</v>
+        <v>0.1648051035290621</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2066713309976622</v>
+        <v>0.2104423262715777</v>
       </c>
     </row>
     <row r="18">
@@ -4135,19 +4135,19 @@
         <v>170008</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>147997</v>
+        <v>147991</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>195224</v>
+        <v>196458</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2243966193665377</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.195343540904606</v>
+        <v>0.1953357019182703</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2576789543171818</v>
+        <v>0.2593080603900471</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>148</v>
@@ -4156,19 +4156,19 @@
         <v>161465</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>139589</v>
+        <v>140375</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>185705</v>
+        <v>187220</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2085061769857074</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1802578125522305</v>
+        <v>0.181272701440268</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2398083267276961</v>
+        <v>0.2417654686640075</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>305</v>
@@ -4177,19 +4177,19 @@
         <v>331473</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>299017</v>
+        <v>299932</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>369015</v>
+        <v>367264</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2163644567364111</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1951793477640068</v>
+        <v>0.1957768162423082</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2408699650495675</v>
+        <v>0.23972698614818</v>
       </c>
     </row>
     <row r="19">
@@ -4206,19 +4206,19 @@
         <v>35110</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>25245</v>
+        <v>25301</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>49127</v>
+        <v>49105</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.04634213453095846</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.0333215470710219</v>
+        <v>0.03339471988128737</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.06484375734142811</v>
+        <v>0.06481502535453371</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>57</v>
@@ -4227,19 +4227,19 @@
         <v>60735</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>47070</v>
+        <v>47102</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>78451</v>
+        <v>77477</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.07843031029384509</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.06078380716634335</v>
+        <v>0.06082473205151916</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1013065935642488</v>
+        <v>0.1000491032465245</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>91</v>
@@ -4248,19 +4248,19 @@
         <v>95845</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>77431</v>
+        <v>77976</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>115511</v>
+        <v>115737</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.06256178657428475</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.05054207439155842</v>
+        <v>0.05089760503999606</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.07539823612224122</v>
+        <v>0.07554590650190848</v>
       </c>
     </row>
     <row r="20">
@@ -4277,19 +4277,19 @@
         <v>147227</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>125936</v>
+        <v>123012</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>171733</v>
+        <v>169463</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1943274103153362</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1662246903336229</v>
+        <v>0.1623654399432191</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2266729726372104</v>
+        <v>0.2236775203492679</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>164</v>
@@ -4298,19 +4298,19 @@
         <v>182370</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>159326</v>
+        <v>159498</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>209439</v>
+        <v>211403</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2355022918511104</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.205743825659264</v>
+        <v>0.2059668230973921</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2704578744306417</v>
+        <v>0.2729941990214229</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>301</v>
@@ -4319,19 +4319,19 @@
         <v>329597</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>296800</v>
+        <v>296499</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>362900</v>
+        <v>362180</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2151401313740343</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1937323495621205</v>
+        <v>0.1935360345335422</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2368782904716236</v>
+        <v>0.2364084511462762</v>
       </c>
     </row>
     <row r="21">
@@ -4423,19 +4423,19 @@
         <v>403534</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>371601</v>
+        <v>371542</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>433678</v>
+        <v>432500</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.4257854988518049</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3920922027496808</v>
+        <v>0.392029911896945</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4575925391795976</v>
+        <v>0.45634925346598</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>445</v>
@@ -4444,19 +4444,19 @@
         <v>464157</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>427490</v>
+        <v>430480</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>497591</v>
+        <v>494572</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.4420836285113761</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.4071607157300429</v>
+        <v>0.4100087007229298</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.473927630514777</v>
+        <v>0.4710519316271518</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>830</v>
@@ -4465,19 +4465,19 @@
         <v>867690</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>820885</v>
+        <v>824976</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>912112</v>
+        <v>918789</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.4343514280536583</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.4109215223708331</v>
+        <v>0.4129692750950049</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4565882507142253</v>
+        <v>0.459930319944543</v>
       </c>
     </row>
     <row r="23">
@@ -4494,19 +4494,19 @@
         <v>187791</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>164151</v>
+        <v>165877</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>214811</v>
+        <v>216562</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1981460131242913</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1732027184729457</v>
+        <v>0.1750238056320962</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2266559893987831</v>
+        <v>0.2285040331755525</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>170</v>
@@ -4515,19 +4515,19 @@
         <v>180182</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>157903</v>
+        <v>157450</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>207272</v>
+        <v>207168</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1716137339657274</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1503936120532491</v>
+        <v>0.149962777043573</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1974146747288614</v>
+        <v>0.1973164112086823</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>351</v>
@@ -4536,19 +4536,19 @@
         <v>367973</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>332945</v>
+        <v>330572</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>404008</v>
+        <v>401727</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1842012458667429</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.166666952033125</v>
+        <v>0.1654787089537843</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2022396070871872</v>
+        <v>0.2010980269258052</v>
       </c>
     </row>
     <row r="24">
@@ -4565,19 +4565,19 @@
         <v>168742</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>146678</v>
+        <v>146190</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>195031</v>
+        <v>195923</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1780472380807879</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1547665143221565</v>
+        <v>0.1542512218711003</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2057859645358747</v>
+        <v>0.2067263787681229</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>135</v>
@@ -4586,19 +4586,19 @@
         <v>141235</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>119165</v>
+        <v>119493</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>164778</v>
+        <v>163618</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1345188278062096</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1134982436323614</v>
+        <v>0.1138101390604274</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1569419278745489</v>
+        <v>0.1558369373531217</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>298</v>
@@ -4607,19 +4607,19 @@
         <v>309978</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>275735</v>
+        <v>279003</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>342354</v>
+        <v>342193</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1551696878054226</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1380284844251818</v>
+        <v>0.1396640799463622</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1713767311759215</v>
+        <v>0.1712959854565492</v>
       </c>
     </row>
     <row r="25">
@@ -4636,19 +4636,19 @@
         <v>43873</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>33359</v>
+        <v>31487</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>59679</v>
+        <v>58859</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.04629212657533851</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.03519808409099183</v>
+        <v>0.03322378292891322</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.06297036421518139</v>
+        <v>0.06210419229425371</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>75</v>
@@ -4657,19 +4657,19 @@
         <v>78149</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>62729</v>
+        <v>61206</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>97400</v>
+        <v>96949</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.07443260051097335</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.05974624456878352</v>
+        <v>0.05829528283336254</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.09276794368973103</v>
+        <v>0.09233864504116038</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>119</v>
@@ -4678,19 +4678,19 @@
         <v>122022</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>101522</v>
+        <v>101771</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>143325</v>
+        <v>146751</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.0610821247207815</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.05082011708429621</v>
+        <v>0.05094482301608747</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.07174629731521363</v>
+        <v>0.07346100325216534</v>
       </c>
     </row>
     <row r="26">
@@ -4707,19 +4707,19 @@
         <v>143800</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>122989</v>
+        <v>123483</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>166927</v>
+        <v>166998</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1517291233677773</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1297710699224865</v>
+        <v>0.1302922821133966</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1761320033151385</v>
+        <v>0.1762065449524686</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>177</v>
@@ -4728,19 +4728,19 @@
         <v>186206</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>161647</v>
+        <v>162175</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>215051</v>
+        <v>214796</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1773512092057135</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1539598662401848</v>
+        <v>0.1544629692944892</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2048242001426654</v>
+        <v>0.2045815888743393</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>314</v>
@@ -4749,19 +4749,19 @@
         <v>330006</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>296067</v>
+        <v>296623</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>363982</v>
+        <v>367860</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1651955135533948</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1482064116180239</v>
+        <v>0.1484844766384312</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1822035862473388</v>
+        <v>0.1841446580790817</v>
       </c>
     </row>
     <row r="27">
@@ -4853,19 +4853,19 @@
         <v>1352251</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1296500</v>
+        <v>1289582</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>1416617</v>
+        <v>1415051</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.3950484872899524</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.3787614521509839</v>
+        <v>0.3767403825103117</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.4138525563155909</v>
+        <v>0.4133950313238805</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1286</v>
@@ -4874,19 +4874,19 @@
         <v>1375770</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1319712</v>
+        <v>1318692</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>1437854</v>
+        <v>1436518</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.3877492051367794</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.3719496387556123</v>
+        <v>0.3716621632765177</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.4052469312838786</v>
+        <v>0.4048704613354601</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>2546</v>
@@ -4895,19 +4895,19 @@
         <v>2728021</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>2637954</v>
+        <v>2644911</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>2813185</v>
+        <v>2808640</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.3913333545562593</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.3784132139848148</v>
+        <v>0.3794112585763247</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.4035500082841575</v>
+        <v>0.4028980435323502</v>
       </c>
     </row>
     <row r="29">
@@ -4924,19 +4924,19 @@
         <v>741716</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>692685</v>
+        <v>685694</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>793479</v>
+        <v>790414</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2166860096273522</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2023618802815366</v>
+        <v>0.2003197171254817</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2318082253143794</v>
+        <v>0.2309127093930782</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>598</v>
@@ -4945,19 +4945,19 @@
         <v>643108</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>592631</v>
+        <v>598449</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>688231</v>
+        <v>691366</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1812545166429024</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1670280723331778</v>
+        <v>0.16866784218584</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1939721457742158</v>
+        <v>0.1948557921654913</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1292</v>
@@ -4966,19 +4966,19 @@
         <v>1384824</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1318568</v>
+        <v>1315025</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1460924</v>
+        <v>1457940</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1986523596563174</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1891479252216869</v>
+        <v>0.1886397814858395</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2095688252200649</v>
+        <v>0.2091407755678175</v>
       </c>
     </row>
     <row r="30">
@@ -4995,19 +4995,19 @@
         <v>589796</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>543379</v>
+        <v>546323</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>631993</v>
+        <v>636934</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1723038803388759</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1587436114382832</v>
+        <v>0.1596034848921251</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1846313249924122</v>
+        <v>0.1860747370585906</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>532</v>
@@ -5016,19 +5016,19 @@
         <v>576036</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>532876</v>
+        <v>528979</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>623740</v>
+        <v>618554</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1623507646648945</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1501864809079259</v>
+        <v>0.1490881975609133</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1757957956220968</v>
+        <v>0.1743343080798168</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>1091</v>
@@ -5037,19 +5037,19 @@
         <v>1165832</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1102432</v>
+        <v>1098534</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1229193</v>
+        <v>1229377</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1672380197423559</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1581433216180383</v>
+        <v>0.1575842334143379</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1763271325650346</v>
+        <v>0.1763535644577477</v>
       </c>
     </row>
     <row r="31">
@@ -5066,19 +5066,19 @@
         <v>154743</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>132180</v>
+        <v>129117</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>181565</v>
+        <v>180710</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.04520670416428029</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.0386151507981289</v>
+        <v>0.03772034504131692</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.05304278994230859</v>
+        <v>0.05279302683753777</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>212</v>
@@ -5087,19 +5087,19 @@
         <v>228188</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>199911</v>
+        <v>197981</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>261579</v>
+        <v>260491</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.06431275327075617</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.05634310553799909</v>
+        <v>0.05579929979577038</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.0737237200690485</v>
+        <v>0.07341714954747838</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>359</v>
@@ -5108,19 +5108,19 @@
         <v>382930</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>344614</v>
+        <v>343192</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>422826</v>
+        <v>422850</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.05493115472770435</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.04943477662780306</v>
+        <v>0.04923079047578136</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.06065420922324957</v>
+        <v>0.0606576296398654</v>
       </c>
     </row>
     <row r="32">
@@ -5137,19 +5137,19 @@
         <v>584494</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>541265</v>
+        <v>536095</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>630875</v>
+        <v>629634</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1707549185795392</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1581259703668617</v>
+        <v>0.156615660177506</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1843046626387098</v>
+        <v>0.1839423105144254</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>662</v>
@@ -5158,19 +5158,19 @@
         <v>724992</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>679417</v>
+        <v>675136</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>778183</v>
+        <v>775221</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.2043327602846676</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1914879061304608</v>
+        <v>0.1902813492192917</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.219324334697533</v>
+        <v>0.2184894489264057</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1207</v>
@@ -5179,19 +5179,19 @@
         <v>1309486</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1233158</v>
+        <v>1246181</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>1375794</v>
+        <v>1377862</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.187845111317363</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1768959956919973</v>
+        <v>0.1787641442115395</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1973570176180677</v>
+        <v>0.1976536194722842</v>
       </c>
     </row>
     <row r="33">
@@ -5523,19 +5523,19 @@
         <v>187079</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>164245</v>
+        <v>164442</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>212530</v>
+        <v>211572</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2772363020317127</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2433973264782924</v>
+        <v>0.2436899685624959</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3149532159476668</v>
+        <v>0.3135326931692306</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>177</v>
@@ -5544,19 +5544,19 @@
         <v>179788</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>156971</v>
+        <v>157728</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>202097</v>
+        <v>202634</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2680716865515473</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2340512495349052</v>
+        <v>0.235179750302045</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3013360154886917</v>
+        <v>0.3021363745424387</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>356</v>
@@ -5565,19 +5565,19 @@
         <v>366867</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>335299</v>
+        <v>332018</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>400147</v>
+        <v>400771</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2726680572982161</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2492056835781508</v>
+        <v>0.2467668054766111</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2974025690159844</v>
+        <v>0.2978667321930178</v>
       </c>
     </row>
     <row r="5">
@@ -5594,19 +5594,19 @@
         <v>206630</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>183605</v>
+        <v>182850</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>231639</v>
+        <v>229771</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3062089119552096</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2720883439441907</v>
+        <v>0.2709689479009684</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3432713040049696</v>
+        <v>0.3405021444141876</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>182</v>
@@ -5615,19 +5615,19 @@
         <v>179888</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>157596</v>
+        <v>157907</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>204285</v>
+        <v>203822</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2682211636749872</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2349819154666978</v>
+        <v>0.2354456209171389</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3045984003739883</v>
+        <v>0.3039076751077349</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>387</v>
@@ -5636,19 +5636,19 @@
         <v>386518</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>355783</v>
+        <v>354513</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>421854</v>
+        <v>421509</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2872733296174565</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2644302036301107</v>
+        <v>0.2634858531181508</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3135364385900218</v>
+        <v>0.3132798815752523</v>
       </c>
     </row>
     <row r="6">
@@ -5665,19 +5665,19 @@
         <v>140521</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>120601</v>
+        <v>117775</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>164602</v>
+        <v>160718</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2082402882807211</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1787206815309803</v>
+        <v>0.1745324821152708</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2439266157341529</v>
+        <v>0.2381716259379053</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>139</v>
@@ -5686,19 +5686,19 @@
         <v>135615</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>114223</v>
+        <v>117370</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>154615</v>
+        <v>157132</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2022072351762173</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1703117740684383</v>
+        <v>0.1750045035036945</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.230538413739933</v>
+        <v>0.2342914078689612</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>273</v>
@@ -5707,19 +5707,19 @@
         <v>276135</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>249640</v>
+        <v>249365</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>308498</v>
+        <v>307374</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2052330193853482</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1855412003908466</v>
+        <v>0.1853366997558639</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2292866059838743</v>
+        <v>0.2284506437625594</v>
       </c>
     </row>
     <row r="7">
@@ -5736,19 +5736,19 @@
         <v>28855</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>18934</v>
+        <v>19237</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>40962</v>
+        <v>40395</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04276092790201862</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02805823084910653</v>
+        <v>0.02850725507820219</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.06070275510576071</v>
+        <v>0.05986191561676863</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>40</v>
@@ -5757,19 +5757,19 @@
         <v>39234</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>28411</v>
+        <v>27781</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>51451</v>
+        <v>53093</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.058499329243688</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04236257904800512</v>
+        <v>0.04142230955192104</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.07671635578609574</v>
+        <v>0.07916428079199951</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>67</v>
@@ -5778,19 +5778,19 @@
         <v>68089</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>53186</v>
+        <v>52966</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>84205</v>
+        <v>84794</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.05060597816062898</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03952989332226913</v>
+        <v>0.03936595079065892</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0625843199078568</v>
+        <v>0.06302183821826776</v>
       </c>
     </row>
     <row r="8">
@@ -5807,19 +5807,19 @@
         <v>111716</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>92355</v>
+        <v>94084</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>133037</v>
+        <v>132940</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.165553569830338</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1368630659239042</v>
+        <v>0.1394242802477656</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1971496027026324</v>
+        <v>0.1970061553516974</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>126</v>
@@ -5828,19 +5828,19 @@
         <v>136147</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>115703</v>
+        <v>114981</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>158312</v>
+        <v>159019</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2030005853535602</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1725187524561262</v>
+        <v>0.1714412921617847</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2360502160863062</v>
+        <v>0.2371049261292124</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>233</v>
@@ -5849,19 +5849,19 @@
         <v>247862</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>220778</v>
+        <v>219881</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>276688</v>
+        <v>279135</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1842196155383502</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1640897743274142</v>
+        <v>0.1634231090140303</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2056437790967364</v>
+        <v>0.2074628618298941</v>
       </c>
     </row>
     <row r="9">
@@ -5953,19 +5953,19 @@
         <v>262190</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>232995</v>
+        <v>234984</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>289635</v>
+        <v>292712</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.25802047206915</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2292895260621572</v>
+        <v>0.2312465541266895</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2850283929027592</v>
+        <v>0.2880571295803016</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>242</v>
@@ -5974,19 +5974,19 @@
         <v>263906</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>234465</v>
+        <v>235594</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>291829</v>
+        <v>292430</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2536578698050087</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2253600730447765</v>
+        <v>0.226445884613045</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2804970345375195</v>
+        <v>0.2810749269045258</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>482</v>
@@ -5995,19 +5995,19 @@
         <v>526096</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>484088</v>
+        <v>487579</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>568586</v>
+        <v>570320</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2558134613248018</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2353869245549343</v>
+        <v>0.2370847554493515</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2764740651950059</v>
+        <v>0.2773170921771305</v>
       </c>
     </row>
     <row r="11">
@@ -6024,19 +6024,19 @@
         <v>340363</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>308076</v>
+        <v>307880</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>371946</v>
+        <v>370878</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3349498553588923</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3031768510683882</v>
+        <v>0.3029833524543459</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3660309757391013</v>
+        <v>0.3649799546768239</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>290</v>
@@ -6045,19 +6045,19 @@
         <v>308484</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>277708</v>
+        <v>276698</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>338837</v>
+        <v>338415</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2965052832700703</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2669239756938495</v>
+        <v>0.2659535517324692</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3256798916399835</v>
+        <v>0.3252741165650126</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>607</v>
@@ -6066,19 +6066,19 @@
         <v>648847</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>606797</v>
+        <v>607733</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>692920</v>
+        <v>693174</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3155010084265665</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2950541269040665</v>
+        <v>0.2955093919817549</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3369315077278676</v>
+        <v>0.3370550203865327</v>
       </c>
     </row>
     <row r="12">
@@ -6095,19 +6095,19 @@
         <v>233533</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>205765</v>
+        <v>207484</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>260430</v>
+        <v>262047</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2298188663216721</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2024928783670134</v>
+        <v>0.204184008409782</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2562882498586148</v>
+        <v>0.2578792066748261</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>235</v>
@@ -6116,19 +6116,19 @@
         <v>240311</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>214844</v>
+        <v>216811</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>271415</v>
+        <v>268333</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2309796715756746</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2065015787958434</v>
+        <v>0.2083919605281422</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2608757297860766</v>
+        <v>0.2579128572158645</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>455</v>
@@ -6137,19 +6137,19 @@
         <v>473844</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>433897</v>
+        <v>436222</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>512209</v>
+        <v>515500</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2304061097861376</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2109816758028952</v>
+        <v>0.2121121638973546</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2490609756750558</v>
+        <v>0.2506609820667088</v>
       </c>
     </row>
     <row r="13">
@@ -6166,19 +6166,19 @@
         <v>55836</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>42519</v>
+        <v>41971</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>71408</v>
+        <v>72731</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05494846911673082</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04184325496441769</v>
+        <v>0.04130330723175121</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.07027187680917667</v>
+        <v>0.07157460761360332</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>38</v>
@@ -6187,19 +6187,19 @@
         <v>40483</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>29027</v>
+        <v>29429</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>55431</v>
+        <v>54938</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03891087181601172</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02789976833758909</v>
+        <v>0.02828601933889255</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05327888053277841</v>
+        <v>0.05280515159245826</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>89</v>
@@ -6208,19 +6208,19 @@
         <v>96319</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>79342</v>
+        <v>78056</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>116089</v>
+        <v>118985</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04683515797508705</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03857994183949588</v>
+        <v>0.03795473643230057</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05644791950593443</v>
+        <v>0.05785632333119792</v>
       </c>
     </row>
     <row r="14">
@@ -6237,19 +6237,19 @@
         <v>124238</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>103886</v>
+        <v>104248</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>147710</v>
+        <v>147647</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1222623371335548</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1022342216122343</v>
+        <v>0.1025904232794421</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1453611019404751</v>
+        <v>0.1452991131396714</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>170</v>
@@ -6258,19 +6258,19 @@
         <v>187216</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>162351</v>
+        <v>161968</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>216455</v>
+        <v>215069</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1799463035332347</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1560467311390172</v>
+        <v>0.1556785242390617</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2080496007121232</v>
+        <v>0.2067180887503194</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>287</v>
@@ -6279,19 +6279,19 @@
         <v>311454</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>276999</v>
+        <v>279526</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>346489</v>
+        <v>348884</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1514442624874071</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1346904146354871</v>
+        <v>0.1359191742983939</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.168479705881829</v>
+        <v>0.169644227969774</v>
       </c>
     </row>
     <row r="15">
@@ -6383,19 +6383,19 @@
         <v>168187</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>145289</v>
+        <v>144485</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>194764</v>
+        <v>195076</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2231870572323764</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1928003197177487</v>
+        <v>0.1917331218546865</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2584544477882052</v>
+        <v>0.25886897917992</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>164</v>
@@ -6404,19 +6404,19 @@
         <v>177357</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>154675</v>
+        <v>154539</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>203226</v>
+        <v>201961</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2273250386044094</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1982528908266668</v>
+        <v>0.1980792878395968</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2604823499133385</v>
+        <v>0.2588610192187332</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>318</v>
@@ -6425,19 +6425,19 @@
         <v>345544</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>314523</v>
+        <v>314063</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>382485</v>
+        <v>381151</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2252919566194793</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2050666814188241</v>
+        <v>0.2047667492721342</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2493769091038026</v>
+        <v>0.2485074993838056</v>
       </c>
     </row>
     <row r="17">
@@ -6454,19 +6454,19 @@
         <v>308343</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>281935</v>
+        <v>279360</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>336440</v>
+        <v>335383</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.4091755480411571</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3741319668532763</v>
+        <v>0.3707154660376066</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4464610692423173</v>
+        <v>0.4450584692600195</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>319</v>
@@ -6475,19 +6475,19 @@
         <v>342347</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>315770</v>
+        <v>315358</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>370615</v>
+        <v>371328</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.4387991689203085</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4047346540551506</v>
+        <v>0.4042069312638629</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4750311928694406</v>
+        <v>0.4759461324339374</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>603</v>
@@ -6496,19 +6496,19 @@
         <v>650690</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>611784</v>
+        <v>612728</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>689435</v>
+        <v>695610</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.4242444272424329</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3988784027082947</v>
+        <v>0.3994938447515913</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4495063744458915</v>
+        <v>0.4535322367752272</v>
       </c>
     </row>
     <row r="18">
@@ -6525,19 +6525,19 @@
         <v>181806</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>157957</v>
+        <v>158462</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>207722</v>
+        <v>207212</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.241259619278442</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2096114137908807</v>
+        <v>0.2102815221035443</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2756505939179268</v>
+        <v>0.2749739270461092</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>146</v>
@@ -6546,19 +6546,19 @@
         <v>151162</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>129974</v>
+        <v>131448</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>173431</v>
+        <v>176680</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1937499688459282</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1665932911645004</v>
+        <v>0.1684818280736087</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2222933791179882</v>
+        <v>0.2264572878713281</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>310</v>
@@ -6567,19 +6567,19 @@
         <v>332968</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>301429</v>
+        <v>298434</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>365501</v>
+        <v>366598</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2170925133671506</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.196529530310714</v>
+        <v>0.1945764372740592</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2383034266904714</v>
+        <v>0.2390188739341218</v>
       </c>
     </row>
     <row r="19">
@@ -6596,19 +6596,19 @@
         <v>37069</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>25695</v>
+        <v>24099</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>51363</v>
+        <v>50624</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.04919088580319945</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.03409740041554953</v>
+        <v>0.03197945300324023</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.068160115899777</v>
+        <v>0.06717924535988357</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>42</v>
@@ -6617,19 +6617,19 @@
         <v>44087</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>31829</v>
+        <v>32292</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>58717</v>
+        <v>59290</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.05650846388255877</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.04079663658513284</v>
+        <v>0.04139000601343999</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.07525935260988158</v>
+        <v>0.07599411037609732</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>75</v>
@@ -6638,19 +6638,19 @@
         <v>81156</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>65334</v>
+        <v>64534</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>102235</v>
+        <v>101046</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.05291317554534823</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.0425971863498152</v>
+        <v>0.04207577690551194</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.066656159751696</v>
+        <v>0.06588145847501395</v>
       </c>
     </row>
     <row r="20">
@@ -6667,19 +6667,19 @@
         <v>58166</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>44508</v>
+        <v>44572</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>75528</v>
+        <v>76110</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.07718688964482499</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.0590626102016417</v>
+        <v>0.05914819203002167</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1002264286060241</v>
+        <v>0.1009992245674319</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>61</v>
@@ -6688,19 +6688,19 @@
         <v>65237</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>50901</v>
+        <v>50085</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>82202</v>
+        <v>81970</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.0836173597467952</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.0652413273984719</v>
+        <v>0.06419530596054307</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1053613613654101</v>
+        <v>0.1050645427147373</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>116</v>
@@ -6709,19 +6709,19 @@
         <v>123403</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>104611</v>
+        <v>101629</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>145833</v>
+        <v>145008</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.08045792722558885</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.06820523136692078</v>
+        <v>0.06626114885242847</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.09508185152101518</v>
+        <v>0.09454434825912073</v>
       </c>
     </row>
     <row r="21">
@@ -6813,19 +6813,19 @@
         <v>210290</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>186456</v>
+        <v>186224</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>238442</v>
+        <v>234594</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2247771188291393</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1993014072050091</v>
+        <v>0.1990528850978858</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2548687950805761</v>
+        <v>0.2507555920314388</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>190</v>
@@ -6834,19 +6834,19 @@
         <v>215458</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>188816</v>
+        <v>189382</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>243778</v>
+        <v>245735</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2070144534185106</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1814164510342711</v>
+        <v>0.1819605854134085</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2342255593536919</v>
+        <v>0.2361050605604286</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>395</v>
@@ -6855,19 +6855,19 @@
         <v>425747</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>391118</v>
+        <v>388683</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>465635</v>
+        <v>465189</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2154228692143322</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.197901045977711</v>
+        <v>0.1966687548307686</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2356056796612213</v>
+        <v>0.2353799152650583</v>
       </c>
     </row>
     <row r="23">
@@ -6884,19 +6884,19 @@
         <v>243832</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>217440</v>
+        <v>219936</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>269712</v>
+        <v>274255</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.260630618118069</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2324201219564039</v>
+        <v>0.2350879161366398</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2882928974200338</v>
+        <v>0.2931490115654118</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>218</v>
@@ -6905,19 +6905,19 @@
         <v>234280</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>208752</v>
+        <v>205032</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>260768</v>
+        <v>262336</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.225098878925116</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2005713751973991</v>
+        <v>0.1969970824971654</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2505492633061815</v>
+        <v>0.2520554525350257</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>462</v>
@@ -6926,19 +6926,19 @@
         <v>478112</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>441209</v>
+        <v>438699</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>517244</v>
+        <v>514782</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2419187440847821</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2232463174866608</v>
+        <v>0.2219763812391999</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2617191945134034</v>
+        <v>0.2604732809258495</v>
       </c>
     </row>
     <row r="24">
@@ -6955,19 +6955,19 @@
         <v>216091</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>192936</v>
+        <v>193478</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>242804</v>
+        <v>245058</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2309779259288274</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2062276757372977</v>
+        <v>0.206807572638532</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2595316903085801</v>
+        <v>0.2619404388859107</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>168</v>
@@ -6976,19 +6976,19 @@
         <v>174751</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>152145</v>
+        <v>151608</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>198969</v>
+        <v>197542</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.167903289882959</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1461829312637839</v>
+        <v>0.1456666596164541</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1911719420060653</v>
+        <v>0.1898009001657533</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>388</v>
@@ -6997,19 +6997,19 @@
         <v>390842</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>357568</v>
+        <v>356586</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>425362</v>
+        <v>427543</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1977612956373448</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1809248693467414</v>
+        <v>0.1804278429473589</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2152279557091844</v>
+        <v>0.2163313437293667</v>
       </c>
     </row>
     <row r="25">
@@ -7026,19 +7026,19 @@
         <v>67247</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>53417</v>
+        <v>52388</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>83704</v>
+        <v>83028</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.07187968487618994</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.05709658730138355</v>
+        <v>0.05599663464745933</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.08947028418841828</v>
+        <v>0.08874748457291363</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>93</v>
@@ -7047,19 +7047,19 @@
         <v>102382</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>84464</v>
+        <v>85329</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>124500</v>
+        <v>125275</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.09836950745771782</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.0811543198314551</v>
+        <v>0.08198494005109951</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.119621447396109</v>
+        <v>0.1203657255759329</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>162</v>
@@ -7068,19 +7068,19 @@
         <v>169628</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>146175</v>
+        <v>145960</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>195722</v>
+        <v>195577</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.085829866729601</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.07396274535092165</v>
+        <v>0.07385375920901985</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.09903298245647235</v>
+        <v>0.09895964543160354</v>
       </c>
     </row>
     <row r="26">
@@ -7097,19 +7097,19 @@
         <v>198088</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>174220</v>
+        <v>173621</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>222825</v>
+        <v>224510</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2117346522477744</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1862226982005701</v>
+        <v>0.1855817837700525</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2381761523122459</v>
+        <v>0.2399772105965454</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>287</v>
@@ -7118,19 +7118,19 @@
         <v>313915</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>280343</v>
+        <v>283719</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>343595</v>
+        <v>344960</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.3016138703156966</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2693568988195146</v>
+        <v>0.2726010028052455</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.330130292452616</v>
+        <v>0.3314420695941163</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>479</v>
@@ -7139,19 +7139,19 @@
         <v>512003</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>477962</v>
+        <v>473509</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>556940</v>
+        <v>555875</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2590672243339399</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2418428141791099</v>
+        <v>0.2395896641866443</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2818047079761927</v>
+        <v>0.2812657415949678</v>
       </c>
     </row>
     <row r="27">
@@ -7243,19 +7243,19 @@
         <v>827746</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>773566</v>
+        <v>777758</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>878826</v>
+        <v>879721</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2448896101748455</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.2288602954374765</v>
+        <v>0.2301005055685395</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2600014628562927</v>
+        <v>0.2602664292117862</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>773</v>
@@ -7264,19 +7264,19 @@
         <v>836508</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>783924</v>
+        <v>786625</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>888616</v>
+        <v>893485</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.2368337832902307</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.2219461595392566</v>
+        <v>0.2227108929235471</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2515868370400283</v>
+        <v>0.2529652871604153</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1551</v>
@@ -7285,19 +7285,19 @@
         <v>1664254</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1599917</v>
+        <v>1594794</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1738852</v>
+        <v>1739256</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.240773141247316</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.2314652532013382</v>
+        <v>0.2307240929232033</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2515654084242414</v>
+        <v>0.2516238527418382</v>
       </c>
     </row>
     <row r="29">
@@ -7314,19 +7314,19 @@
         <v>1099168</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1042433</v>
+        <v>1044079</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1157133</v>
+        <v>1158794</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.3251899424854646</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.3084049137453907</v>
+        <v>0.3088917377871964</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3423390375765948</v>
+        <v>0.3428302598402806</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1009</v>
@@ -7335,19 +7335,19 @@
         <v>1064999</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1010885</v>
+        <v>1012136</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>1125201</v>
+        <v>1118257</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.3015245537309994</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2862038461891314</v>
+        <v>0.2865581214760406</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3185691165014534</v>
+        <v>0.3166030439768813</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>2059</v>
@@ -7356,19 +7356,19 @@
         <v>2164167</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>2088095</v>
+        <v>2083005</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>2242658</v>
+        <v>2245201</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.3130971010104681</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.3020915528226418</v>
+        <v>0.3013551233139621</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3244526379076623</v>
+        <v>0.3248205677086388</v>
       </c>
     </row>
     <row r="30">
@@ -7385,19 +7385,19 @@
         <v>771951</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>727069</v>
+        <v>722987</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>817697</v>
+        <v>823358</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2283823766680283</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2151040937185178</v>
+        <v>0.2138964972420921</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2419164034631486</v>
+        <v>0.2435912234292945</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>688</v>
@@ -7406,19 +7406,19 @@
         <v>701839</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>657367</v>
+        <v>655039</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>751521</v>
+        <v>748532</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1987060213038796</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1861150146952146</v>
+        <v>0.1854559146094205</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2127722274824492</v>
+        <v>0.2119257768952005</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>1426</v>
@@ -7427,19 +7427,19 @@
         <v>1473790</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1403470</v>
+        <v>1408609</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1542384</v>
+        <v>1546699</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2132179749885248</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.203044585050355</v>
+        <v>0.2037881011623495</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2231417080903532</v>
+        <v>0.2237660079612778</v>
       </c>
     </row>
     <row r="31">
@@ -7456,19 +7456,19 @@
         <v>189007</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>162652</v>
+        <v>160421</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>218832</v>
+        <v>217095</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.05591799243909092</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.04812063662334719</v>
+        <v>0.04746065426071819</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.06474159315213794</v>
+        <v>0.06422770181357999</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>213</v>
@@ -7477,19 +7477,19 @@
         <v>226186</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>200006</v>
+        <v>197824</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>259775</v>
+        <v>256475</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.06403809643152156</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.05662618697555713</v>
+        <v>0.05600830743003543</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.07354801316418914</v>
+        <v>0.07261374388111821</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>393</v>
@@ -7498,19 +7498,19 @@
         <v>415193</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>373439</v>
+        <v>378604</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>453941</v>
+        <v>456271</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.0600673065010635</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.05402664036411392</v>
+        <v>0.05477383261369601</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.06567316186433106</v>
+        <v>0.06601028364960813</v>
       </c>
     </row>
     <row r="32">
@@ -7527,19 +7527,19 @@
         <v>492208</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>454306</v>
+        <v>451400</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>537243</v>
+        <v>535329</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1456200782325707</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1344069573517311</v>
+        <v>0.1335471780678536</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1589439555127739</v>
+        <v>0.158377567052046</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>644</v>
@@ -7548,19 +7548,19 @@
         <v>702515</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>652718</v>
+        <v>654432</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>750596</v>
+        <v>748654</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.1988975452433687</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1847989192356581</v>
+        <v>0.1852840204911865</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.2125101732815007</v>
+        <v>0.2119603747334969</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1115</v>
@@ -7569,19 +7569,19 @@
         <v>1194723</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1132403</v>
+        <v>1126909</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>1256099</v>
+        <v>1255533</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1728444762526276</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1638284883997823</v>
+        <v>0.1630336169183305</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1817239138775853</v>
+        <v>0.1816420364802077</v>
       </c>
     </row>
     <row r="33">
